--- a/excel/sd_ocupacion.xlsx
+++ b/excel/sd_ocupacion.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1719957765368982</v>
+        <v>1.500424694718129</v>
       </c>
     </row>
   </sheetData>
